--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/Lab4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theresadejacimo/PycharmProjects/cs151-lab4-theresa_antonio_lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD855A85-678C-0D4F-A767-FA0C68848C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B997154-F1E2-4445-A701-EE87FE8C632A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="1500" yWindow="740" windowWidth="28800" windowHeight="17220" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Test Description</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>Green Package 3 months with additional 5 GB data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -220,9 +238,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +278,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -366,7 +384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -508,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B94F62A-3D0C-2040-8FEF-E1506E31F742}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,52 +688,106 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="31" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4">
+        <f>(C9*C2)+(D9*D2)</f>
+        <v>99.98</v>
+      </c>
+      <c r="G9" s="4">
+        <f>F9-20</f>
+        <v>79.98</v>
+      </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="31" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4">
+        <f>C3*C10</f>
+        <v>140</v>
+      </c>
+      <c r="G10" s="4">
+        <f>F10-0</f>
+        <v>140</v>
+      </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="31" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4">
+        <f>C11*C4</f>
+        <v>199.9</v>
+      </c>
+      <c r="G11" s="4">
+        <f>F11-0</f>
+        <v>199.9</v>
+      </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4">
+        <f>(C2*C12)+(D12*D2)</f>
+        <v>224.97</v>
+      </c>
+      <c r="G12" s="4">
+        <f>F12-0</f>
+        <v>224.97</v>
+      </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -728,6 +800,11 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/Lab4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eileen Martinez\PycharmProjects\cs151-lab4-theresa_antonio_lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F20BC38-C1FB-8348-B0AD-1C6D7396AF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D967B3E-F580-4D2E-84BE-D8F76292B708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="15130" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Test case</t>
   </si>
@@ -49,6 +40,24 @@
   </si>
   <si>
     <t>output: Total</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -403,12 +412,12 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,44 +434,140 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>79.989999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>109.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>119.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>99.95</v>
       </c>
     </row>
   </sheetData>
